--- a/IoTgateway/Java/AiTESIoTgateway/smartHome_Test_environment_template.xlsx
+++ b/IoTgateway/Java/AiTESIoTgateway/smartHome_Test_environment_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srsok/AiTES/IoTgateway/Java/AiTESIoTgateway/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80445B12-9311-3348-9927-069CDED75140}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C35B1-150E-7E4F-8293-1A1C91819F3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="27320" windowHeight="13740" activeTab="1" xr2:uid="{CFB4D650-32E2-5E46-9B4D-900BF3830FF0}"/>
+    <workbookView xWindow="31780" yWindow="2700" windowWidth="27320" windowHeight="13740" activeTab="1" xr2:uid="{CFB4D650-32E2-5E46-9B4D-900BF3830FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.19.24.482:127.07.43.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>37.19.24.416:127.07.43.46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.19.24.217:127.07.43.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>37.19.24.324:127.07.43.115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +369,14 @@
   </si>
   <si>
     <t>arrivalTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.19.22.217:127.07.42.175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.19.24.312:127.07.43.215</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BAF0D6-989F-4A47-B300-D9284C366A1E}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1217,9 +1217,9 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
@@ -1234,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>42933</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>42933</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>42933</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>42933</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>42933</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>42933</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>42933</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>42933</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>42933</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>42933</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>42933</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>42933</v>
       </c>
@@ -1437,8 +1437,12 @@
       <c r="E13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f>SUM(C2:C13)</f>
+        <v>1140.0500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>42933</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>42933</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1675,8 +1679,12 @@
       <c r="E27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <f>SUM(C16:C27)</f>
+        <v>1140.0500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>42933.041666666664</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1718,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>498.75</v>
+        <v>66.5</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1744,7 +1752,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1778,7 +1786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1913,8 +1921,12 @@
       <c r="E41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <f>SUM(C30:C41)</f>
+        <v>504.34999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42933.083333333336</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>23.6</v>
+        <v>16.5</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
@@ -1948,7 +1960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>42933.125</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>42933.125</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>42933.125</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>42933.125</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>42933.125</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>42933.125</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>42933.125</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>42933.125</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>42933.125</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>42933.125</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>42933.125</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>42933.125</v>
       </c>
@@ -2151,8 +2163,12 @@
       <c r="E55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <f>SUM(C44:C55)</f>
+        <v>1338.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>42933.125</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
         <v>78</v>
@@ -2169,7 +2185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>42933.125</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2254,7 +2270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2305,7 +2321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2322,7 +2338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2339,7 +2355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2356,7 +2372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2373,7 +2389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2389,8 +2405,12 @@
       <c r="E69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <f>SUM(C58:C69)</f>
+        <v>928.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2398,7 +2418,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
         <v>78</v>
@@ -2407,7 +2427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>42933.166666666664</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2441,7 +2461,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2458,7 +2478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2475,7 +2495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2492,7 +2512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2509,7 +2529,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2526,7 +2546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2543,7 +2563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2594,7 +2614,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2627,8 +2647,12 @@
       <c r="E83" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <f>SUM(C72:C83)</f>
+        <v>1533.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2636,7 +2660,7 @@
         <v>62</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
         <v>78</v>
@@ -2645,7 +2669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>42933.208333333336</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>42933.25</v>
       </c>
@@ -2679,7 +2703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>42933.25</v>
       </c>
@@ -2696,7 +2720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>42933.25</v>
       </c>
@@ -2713,7 +2737,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>42933.25</v>
       </c>
@@ -2730,7 +2754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>42933.25</v>
       </c>
@@ -2747,7 +2771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>42933.25</v>
       </c>
@@ -2764,7 +2788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>42933.25</v>
       </c>
@@ -2781,7 +2805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>42933.25</v>
       </c>
@@ -2798,7 +2822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>42933.25</v>
       </c>
@@ -2815,7 +2839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>42933.25</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>42933.25</v>
       </c>
@@ -2849,7 +2873,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>42933.25</v>
       </c>
@@ -2865,8 +2889,12 @@
       <c r="E97" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <f>SUM(C86:C97)</f>
+        <v>1115.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>42933.25</v>
       </c>
@@ -2874,7 +2902,7 @@
         <v>62</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
         <v>78</v>
@@ -2883,7 +2911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>42933.25</v>
       </c>
@@ -2900,7 +2928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -2917,7 +2945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -2934,7 +2962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -2951,7 +2979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -2968,7 +2996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -2985,7 +3013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3002,7 +3030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3019,7 +3047,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3036,7 +3064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3053,7 +3081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3070,7 +3098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3087,7 +3115,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3103,8 +3131,12 @@
       <c r="E111" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <f>SUM(C100:C111)</f>
+        <v>811.71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3112,7 +3144,7 @@
         <v>62</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D112" t="s">
         <v>78</v>
@@ -3121,7 +3153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>42933.291666666664</v>
       </c>
@@ -3138,7 +3170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3155,7 +3187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3172,7 +3204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3189,7 +3221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3206,7 +3238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3223,7 +3255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3240,7 +3272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3257,7 +3289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3274,7 +3306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3291,7 +3323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3308,7 +3340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3325,7 +3357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3341,8 +3373,12 @@
       <c r="E125" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <f>SUM(C114:C125)</f>
+        <v>502.09999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3350,7 +3386,7 @@
         <v>62</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D126" t="s">
         <v>78</v>
@@ -3359,7 +3395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>42933.333333333336</v>
       </c>
@@ -3376,7 +3412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>42933.375</v>
       </c>
@@ -3393,7 +3429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>42933.375</v>
       </c>
@@ -3410,7 +3446,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>42933.375</v>
       </c>
@@ -3427,7 +3463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>42933.375</v>
       </c>
@@ -3444,7 +3480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>42933.375</v>
       </c>
@@ -3461,7 +3497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>42933.375</v>
       </c>
@@ -3478,7 +3514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>42933.375</v>
       </c>
@@ -3495,7 +3531,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>42933.375</v>
       </c>
@@ -3512,7 +3548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>42933.375</v>
       </c>
@@ -3529,7 +3565,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>42933.375</v>
       </c>
@@ -3546,7 +3582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>42933.375</v>
       </c>
@@ -3563,7 +3599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>42933.375</v>
       </c>
@@ -3579,8 +3615,12 @@
       <c r="E139" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <f>SUM(C128:C139)</f>
+        <v>1316.45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>42933.375</v>
       </c>
@@ -3588,7 +3628,7 @@
         <v>62</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D140" t="s">
         <v>78</v>
@@ -3597,7 +3637,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>42933.375</v>
       </c>
@@ -3614,7 +3654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3631,7 +3671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3648,7 +3688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3665,7 +3705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3682,7 +3722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3699,7 +3739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3716,7 +3756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3733,7 +3773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3750,7 +3790,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3767,7 +3807,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3784,7 +3824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3801,7 +3841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3817,8 +3857,12 @@
       <c r="E153" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <f>SUM(C142:C153)</f>
+        <v>1061.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3826,7 +3870,7 @@
         <v>62</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D154" t="s">
         <v>78</v>
@@ -3835,7 +3879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>42933.416666666664</v>
       </c>
@@ -3852,7 +3896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>42933.458333333336</v>
       </c>
